--- a/Excel/Data Cleaning Excel Tutorial.xlsx
+++ b/Excel/Data Cleaning Excel Tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C3F4832D-6691-4E80-9CE5-51C600B1F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B3629B-E196-844E-81CD-6DEFD9E32C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>S.No.</t>
   </si>
@@ -451,7 +451,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -941,7 +941,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1300,15 +1300,15 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="23.5546875" style="3"/>
+    <col min="7" max="7" width="23.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2639,27 +2639,27 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G47" s="4">
-        <v>395000</v>
+        <v>405000</v>
       </c>
       <c r="H47" s="2">
         <v>44391</v>
@@ -2668,34 +2668,8 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="4">
-        <v>405000</v>
-      </c>
-      <c r="H48" s="2">
-        <v>44391</v>
-      </c>
-      <c r="I48" s="2">
-        <v>43862</v>
-      </c>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G48"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Excel/Data Cleaning Excel Tutorial.xlsx
+++ b/Excel/Data Cleaning Excel Tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B3629B-E196-844E-81CD-6DEFD9E32C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1708086F-AC1F-CF44-9148-4E2BA37B7706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,44 +1297,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="23.5" style="3"/>
+    <col min="8" max="8" width="23.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1344,26 +1344,30 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="str">
+        <f>PROPER(C2)</f>
+        <v>George Washington</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>5000</v>
       </c>
-      <c r="H2" s="1">
-        <v>44391</v>
-      </c>
       <c r="I2" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1373,26 +1377,30 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D47" si="0">PROPER(C3)</f>
+        <v>John Adams</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>10000</v>
       </c>
-      <c r="H3" s="1">
-        <v>44391</v>
-      </c>
       <c r="I3" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1402,26 +1410,30 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Thomas Jefferson</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>15000</v>
       </c>
-      <c r="H4" s="1">
-        <v>44391</v>
-      </c>
       <c r="I4" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1431,26 +1443,30 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>James Madison</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>20000</v>
       </c>
-      <c r="H5" s="1">
-        <v>44391</v>
-      </c>
       <c r="I5" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1460,26 +1476,30 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>James Monroe</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>25000</v>
       </c>
-      <c r="H6" s="1">
-        <v>44391</v>
-      </c>
       <c r="I6" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1489,26 +1509,30 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>John Quincy Adams</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>30000</v>
       </c>
-      <c r="H7" s="1">
-        <v>44391</v>
-      </c>
       <c r="I7" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1518,26 +1542,30 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Jackson</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>35000</v>
       </c>
-      <c r="H8" s="1">
-        <v>44391</v>
-      </c>
       <c r="I8" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1547,26 +1575,30 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin Van Buren</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>40000</v>
       </c>
-      <c r="H9" s="1">
-        <v>44391</v>
-      </c>
       <c r="I9" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1576,26 +1608,30 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>William Henry Harrison</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>45000</v>
       </c>
-      <c r="H10" s="1">
-        <v>44391</v>
-      </c>
       <c r="I10" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1605,26 +1641,30 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>John Tyler</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>50000</v>
       </c>
-      <c r="H11" s="1">
-        <v>44391</v>
-      </c>
       <c r="I11" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1634,26 +1674,30 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>James K. Polk</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>55000</v>
       </c>
-      <c r="H12" s="1">
-        <v>44391</v>
-      </c>
       <c r="I12" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1663,26 +1707,30 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Zachary Taylor</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>60000</v>
       </c>
-      <c r="H13" s="1">
-        <v>44391</v>
-      </c>
       <c r="I13" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1692,26 +1740,30 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>65000</v>
       </c>
-      <c r="H14" s="1">
-        <v>44391</v>
-      </c>
       <c r="I14" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1721,26 +1773,30 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin Pierce</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>75000</v>
       </c>
-      <c r="H15" s="1">
-        <v>44391</v>
-      </c>
       <c r="I15" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1750,26 +1806,30 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>James Buchanan</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>85000</v>
       </c>
-      <c r="H16" s="1">
-        <v>44391</v>
-      </c>
       <c r="I16" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1779,26 +1839,30 @@
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Abraham Lincoln</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>95000</v>
       </c>
-      <c r="H17" s="1">
-        <v>44391</v>
-      </c>
       <c r="I17" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1808,26 +1872,30 @@
       <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Johnson</v>
+      </c>
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>105000</v>
       </c>
-      <c r="H18" s="1">
-        <v>44391</v>
-      </c>
       <c r="I18" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1837,26 +1905,30 @@
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulysses S. Grant</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>115000</v>
       </c>
-      <c r="H19" s="1">
-        <v>44391</v>
-      </c>
       <c r="I19" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1866,26 +1938,30 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Rutherford B. Hayes</v>
+      </c>
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>125000</v>
       </c>
-      <c r="H20" s="1">
-        <v>44391</v>
-      </c>
       <c r="I20" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1895,26 +1971,30 @@
       <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>James A. Garfield</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>135000</v>
       </c>
-      <c r="H21" s="1">
-        <v>44391</v>
-      </c>
       <c r="I21" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1924,26 +2004,30 @@
       <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>145000</v>
       </c>
-      <c r="H22" s="1">
-        <v>44391</v>
-      </c>
       <c r="I22" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1953,26 +2037,30 @@
       <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>155000</v>
       </c>
-      <c r="H23" s="1">
-        <v>44391</v>
-      </c>
       <c r="I23" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1982,26 +2070,30 @@
       <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Benjamin Harrison</v>
+      </c>
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>165000</v>
       </c>
-      <c r="H24" s="1">
-        <v>44391</v>
-      </c>
       <c r="I24" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2011,26 +2103,30 @@
       <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>175000</v>
       </c>
-      <c r="H25" s="1">
-        <v>44391</v>
-      </c>
       <c r="I25" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2040,26 +2136,30 @@
       <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>William Mckinley</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>185000</v>
       </c>
-      <c r="H26" s="1">
-        <v>44391</v>
-      </c>
       <c r="I26" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2069,26 +2169,30 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Theodore Roosevelt</v>
+      </c>
+      <c r="E27" t="s">
         <v>81</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>195000</v>
       </c>
-      <c r="H27" s="1">
-        <v>44391</v>
-      </c>
       <c r="I27" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2098,26 +2202,30 @@
       <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>William Howard Taft</v>
+      </c>
+      <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>205000</v>
       </c>
-      <c r="H28" s="1">
-        <v>44391</v>
-      </c>
       <c r="I28" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2127,26 +2235,30 @@
       <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>225000</v>
       </c>
-      <c r="H29" s="1">
-        <v>44391</v>
-      </c>
       <c r="I29" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2156,26 +2268,30 @@
       <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>225000</v>
       </c>
-      <c r="H30" s="1">
-        <v>44391</v>
-      </c>
       <c r="I30" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2185,26 +2301,30 @@
       <c r="C31" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Warren G. Harding</v>
+      </c>
+      <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>60</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>235000</v>
       </c>
-      <c r="H31" s="1">
-        <v>44391</v>
-      </c>
       <c r="I31" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2214,26 +2334,30 @@
       <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="E32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>60</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>245000</v>
       </c>
-      <c r="H32" s="1">
-        <v>44391</v>
-      </c>
       <c r="I32" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2243,26 +2367,30 @@
       <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbert Hoover</v>
+      </c>
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>255000</v>
       </c>
-      <c r="H33" s="1">
-        <v>44391</v>
-      </c>
       <c r="I33" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2272,26 +2400,30 @@
       <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin D. Roosevelt</v>
+      </c>
+      <c r="E34" t="s">
         <v>96</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>265000</v>
       </c>
-      <c r="H34" s="1">
-        <v>44391</v>
-      </c>
       <c r="I34" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2301,26 +2433,30 @@
       <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Harry S. Truman</v>
+      </c>
+      <c r="E35" t="s">
         <v>99</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>275000</v>
       </c>
-      <c r="H35" s="1">
-        <v>44391</v>
-      </c>
       <c r="I35" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2330,26 +2466,30 @@
       <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight D. Eisenhower</v>
+      </c>
+      <c r="E36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>285000</v>
       </c>
-      <c r="H36" s="1">
-        <v>44391</v>
-      </c>
       <c r="I36" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2359,26 +2499,30 @@
       <c r="C37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>John F. Kennedy</v>
+      </c>
+      <c r="E37" t="s">
         <v>104</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>295000</v>
       </c>
-      <c r="H37" s="1">
-        <v>44391</v>
-      </c>
       <c r="I37" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2388,26 +2532,30 @@
       <c r="C38" t="s">
         <v>105</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>26</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>305000</v>
       </c>
-      <c r="H38" s="1">
-        <v>44391</v>
-      </c>
       <c r="I38" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2417,26 +2565,30 @@
       <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Richard Nixon</v>
+      </c>
+      <c r="E39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>60</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>315000</v>
       </c>
-      <c r="H39" s="1">
-        <v>44391</v>
-      </c>
       <c r="I39" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2446,26 +2598,30 @@
       <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerald Ford</v>
+      </c>
+      <c r="E40" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>60</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>325000</v>
       </c>
-      <c r="H40" s="1">
-        <v>44391</v>
-      </c>
       <c r="I40" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2475,26 +2631,30 @@
       <c r="C41" t="s">
         <v>111</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Jimmy Carter</v>
+      </c>
+      <c r="E41" t="s">
         <v>112</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>26</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>335000</v>
       </c>
-      <c r="H41" s="1">
-        <v>44391</v>
-      </c>
       <c r="I41" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2504,26 +2664,30 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ronald Reagan</v>
+      </c>
+      <c r="E42" t="s">
         <v>115</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>60</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>345000</v>
       </c>
-      <c r="H42" s="1">
-        <v>44391</v>
-      </c>
       <c r="I42" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2533,26 +2697,30 @@
       <c r="C43" t="s">
         <v>116</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="E43" t="s">
         <v>117</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>60</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>118</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>355000</v>
       </c>
-      <c r="H43" s="1">
-        <v>44391</v>
-      </c>
       <c r="I43" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2562,26 +2730,30 @@
       <c r="C44" t="s">
         <v>119</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Bill Clinton</v>
+      </c>
+      <c r="E44" t="s">
         <v>120</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>365000</v>
       </c>
-      <c r="H44" s="1">
-        <v>44391</v>
-      </c>
       <c r="I44" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2591,26 +2763,30 @@
       <c r="C45" t="s">
         <v>122</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>George W. Bush</v>
+      </c>
+      <c r="E45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>60</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>375000</v>
       </c>
-      <c r="H45" s="1">
-        <v>44391</v>
-      </c>
       <c r="I45" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="J45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2620,26 +2796,30 @@
       <c r="C46" t="s">
         <v>125</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Barack Obama</v>
+      </c>
+      <c r="E46" t="s">
         <v>126</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>26</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>395000</v>
       </c>
-      <c r="H46" s="2">
-        <v>44391</v>
-      </c>
       <c r="I46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="J46" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2649,27 +2829,31 @@
       <c r="C47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Donald Trump</v>
+      </c>
+      <c r="E47" t="s">
         <v>129</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>132</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>405000</v>
       </c>
-      <c r="H47" s="2">
-        <v>44391</v>
-      </c>
       <c r="I47" s="2">
+        <v>44391</v>
+      </c>
+      <c r="J47" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G48"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H48"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Excel/Data Cleaning Excel Tutorial.xlsx
+++ b/Excel/Data Cleaning Excel Tutorial.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1708086F-AC1F-CF44-9148-4E2BA37B7706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115AD04F-3457-C140-8E4C-EED28CAB60E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US_Presidents Excel Tutorial Da'!$A$1:$K$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>S.No.</t>
   </si>
@@ -145,9 +148,6 @@
     <t>10th  Vice President of the United States</t>
   </si>
   <si>
-    <t>Whig   April 4, 1841  â€“  September 13, 1841</t>
-  </si>
-  <si>
     <t>Office vacant</t>
   </si>
   <si>
@@ -430,12 +430,6 @@
     <t>Nonpartisan</t>
   </si>
   <si>
-    <t>Republicans</t>
-  </si>
-  <si>
-    <t>Demorcatic</t>
-  </si>
-  <si>
     <t>salary</t>
   </si>
   <si>
@@ -443,15 +437,20 @@
   </si>
   <si>
     <t>date updated</t>
+  </si>
+  <si>
+    <t>president-fixed</t>
+  </si>
+  <si>
+    <t>vice-fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -936,12 +935,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1297,24 +1295,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="23.5" style="3"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -1324,17 +1326,20 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1352,22 +1357,26 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" t="str">
+        <f>TRIM(G2)</f>
+        <v>John Adams</v>
+      </c>
+      <c r="I2" s="3">
         <v>5000</v>
       </c>
-      <c r="I2" s="1">
-        <v>44391</v>
-      </c>
       <c r="J2" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1390,17 +1399,21 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H47" si="1">TRIM(G3)</f>
+        <v>Thomas Jefferson</v>
+      </c>
+      <c r="I3" s="3">
         <v>10000</v>
       </c>
-      <c r="I3" s="1">
-        <v>44391</v>
-      </c>
       <c r="J3" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1423,17 +1436,21 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Aaron Burr</v>
+      </c>
+      <c r="I4" s="3">
         <v>15000</v>
       </c>
-      <c r="I4" s="1">
-        <v>44391</v>
-      </c>
       <c r="J4" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1456,17 +1473,21 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>George Clinton</v>
+      </c>
+      <c r="I5" s="3">
         <v>20000</v>
       </c>
-      <c r="I5" s="1">
-        <v>44391</v>
-      </c>
       <c r="J5" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1489,17 +1510,21 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Daniel D. Tompkins</v>
+      </c>
+      <c r="I6" s="3">
         <v>25000</v>
       </c>
-      <c r="I6" s="1">
-        <v>44391</v>
-      </c>
       <c r="J6" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1522,17 +1547,21 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>John C. Calhoun</v>
+      </c>
+      <c r="I7" s="3">
         <v>30000</v>
       </c>
-      <c r="I7" s="1">
-        <v>44391</v>
-      </c>
       <c r="J7" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1555,17 +1584,21 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>John C. Calhoun</v>
+      </c>
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="I8" s="1">
-        <v>44391</v>
-      </c>
       <c r="J8" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1588,17 +1621,21 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Richard Mentor Johnson</v>
+      </c>
+      <c r="I9" s="3">
         <v>40000</v>
       </c>
-      <c r="I9" s="1">
-        <v>44391</v>
-      </c>
       <c r="J9" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1621,17 +1658,21 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>John Tyler</v>
+      </c>
+      <c r="I10" s="3">
         <v>45000</v>
       </c>
-      <c r="I10" s="1">
-        <v>44391</v>
-      </c>
       <c r="J10" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1649,22 +1690,26 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="I11" s="1">
-        <v>44391</v>
-      </c>
       <c r="J11" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1672,32 +1717,36 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>James K. Polk</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>James K. Polk</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="4">
+        <v>40</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>George M. Dallas</v>
+      </c>
+      <c r="I12" s="3">
         <v>55000</v>
       </c>
-      <c r="I12" s="1">
-        <v>44391</v>
-      </c>
       <c r="J12" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1705,32 +1754,36 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Zachary Taylor</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Zachary Taylor</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4">
+        <v>43</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="I13" s="3">
         <v>60000</v>
       </c>
-      <c r="I13" s="1">
-        <v>44391</v>
-      </c>
       <c r="J13" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1738,32 +1791,36 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="E14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Millard Fillmore</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="4">
+        <v>37</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I14" s="3">
         <v>65000</v>
       </c>
-      <c r="I14" s="1">
-        <v>44391</v>
-      </c>
       <c r="J14" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1771,32 +1828,36 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin Pierce</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Franklin Pierce</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4">
+        <v>48</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>William R. King</v>
+      </c>
+      <c r="I15" s="3">
         <v>75000</v>
       </c>
-      <c r="I15" s="1">
-        <v>44391</v>
-      </c>
       <c r="J15" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1804,32 +1865,36 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>James Buchanan</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>James Buchanan</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4">
+        <v>51</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>John C. Breckinridge</v>
+      </c>
+      <c r="I16" s="3">
         <v>85000</v>
       </c>
-      <c r="I16" s="1">
-        <v>44391</v>
-      </c>
       <c r="J16" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1837,32 +1902,36 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Abraham Lincoln</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Abraham Lincoln</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Hannibal Hamlin</v>
+      </c>
+      <c r="I17" s="3">
         <v>95000</v>
       </c>
-      <c r="I17" s="1">
-        <v>44391</v>
-      </c>
       <c r="J17" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1870,32 +1939,36 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Johnson</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrew Johnson</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="4">
+        <v>37</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I18" s="3">
         <v>105000</v>
       </c>
-      <c r="I18" s="1">
-        <v>44391</v>
-      </c>
       <c r="J18" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1903,32 +1976,36 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulysses S. Grant</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ulysses S. Grant</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Schuyler Colfax</v>
+      </c>
+      <c r="I19" s="3">
         <v>115000</v>
       </c>
-      <c r="I19" s="1">
-        <v>44391</v>
-      </c>
       <c r="J19" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1936,32 +2013,36 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Rutherford B. Hayes</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Rutherford B. Hayes</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>William A. Wheeler</v>
+      </c>
+      <c r="I20" s="3">
         <v>125000</v>
       </c>
-      <c r="I20" s="1">
-        <v>44391</v>
-      </c>
       <c r="J20" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1969,32 +2050,36 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>James A. Garfield</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>James A. Garfield</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="I21" s="3">
         <v>135000</v>
       </c>
-      <c r="I21" s="1">
-        <v>44391</v>
-      </c>
       <c r="J21" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2002,32 +2087,36 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Chester A. Arthur</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="4">
+        <v>37</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I22" s="3">
         <v>145000</v>
       </c>
-      <c r="I22" s="1">
-        <v>44391</v>
-      </c>
       <c r="J22" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2035,32 +2124,36 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="E23" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Grover Cleveland</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="4">
+        <v>70</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas A. Hendricks</v>
+      </c>
+      <c r="I23" s="3">
         <v>155000</v>
       </c>
-      <c r="I23" s="1">
-        <v>44391</v>
-      </c>
       <c r="J23" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2068,32 +2161,36 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Benjamin Harrison</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Benjamin Harrison</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Levi P. Morton</v>
+      </c>
+      <c r="I24" s="3">
         <v>165000</v>
       </c>
-      <c r="I24" s="1">
-        <v>44391</v>
-      </c>
       <c r="J24" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2101,32 +2198,36 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>Grover Cleveland</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="4">
+        <v>75</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Adlai Stevenson</v>
+      </c>
+      <c r="I25" s="3">
         <v>175000</v>
       </c>
-      <c r="I25" s="1">
-        <v>44391</v>
-      </c>
       <c r="J25" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2134,32 +2235,36 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>William Mckinley</v>
+      </c>
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>William Mckinley</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Garret Hobart</v>
+      </c>
+      <c r="I26" s="3">
         <v>185000</v>
       </c>
-      <c r="I26" s="1">
-        <v>44391</v>
-      </c>
       <c r="J26" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2167,32 +2272,36 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Theodore Roosevelt</v>
+      </c>
+      <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Theodore Roosevelt</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="4">
+        <v>37</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I27" s="3">
         <v>195000</v>
       </c>
-      <c r="I27" s="1">
-        <v>44391</v>
-      </c>
       <c r="J27" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2200,32 +2309,36 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>William Howard Taft</v>
+      </c>
+      <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>William Howard Taft</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
         <v>83</v>
       </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>James S. Sherman</v>
+      </c>
+      <c r="I28" s="3">
         <v>205000</v>
       </c>
-      <c r="I28" s="1">
-        <v>44391</v>
-      </c>
       <c r="J28" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2233,32 +2346,36 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E29" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>Woodrow Wilson</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="4">
+        <v>86</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas R. Marshall</v>
+      </c>
+      <c r="I29" s="3">
         <v>225000</v>
       </c>
-      <c r="I29" s="1">
-        <v>44391</v>
-      </c>
       <c r="J29" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2266,32 +2383,36 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Woodrow Wilson</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas R. Marshall</v>
+      </c>
+      <c r="I30" s="3">
         <v>225000</v>
       </c>
-      <c r="I30" s="1">
-        <v>44391</v>
-      </c>
       <c r="J30" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2299,32 +2420,36 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Warren G. Harding</v>
+      </c>
+      <c r="E31" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Warren G. Harding</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
         <v>89</v>
       </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="I31" s="3">
         <v>235000</v>
       </c>
-      <c r="I31" s="1">
-        <v>44391</v>
-      </c>
       <c r="J31" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2332,32 +2457,36 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="E32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Calvin Coolidge</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="4">
+        <v>37</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I32" s="3">
         <v>245000</v>
       </c>
-      <c r="I32" s="1">
-        <v>44391</v>
-      </c>
       <c r="J32" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2365,32 +2494,36 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbert Hoover</v>
+      </c>
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Herbert Hoover</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
         <v>93</v>
       </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>Charles Curtis</v>
+      </c>
+      <c r="I33" s="3">
         <v>255000</v>
       </c>
-      <c r="I33" s="1">
-        <v>44391</v>
-      </c>
       <c r="J33" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2398,32 +2531,36 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin D. Roosevelt</v>
+      </c>
+      <c r="E34" t="s">
         <v>95</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Franklin D. Roosevelt</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="4">
+        <v>96</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>John Nance Garner</v>
+      </c>
+      <c r="I34" s="3">
         <v>265000</v>
       </c>
-      <c r="I34" s="1">
-        <v>44391</v>
-      </c>
       <c r="J34" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2431,32 +2568,36 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Harry S. Truman</v>
+      </c>
+      <c r="E35" t="s">
         <v>98</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Harry S. Truman</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="4">
+        <v>37</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I35" s="3">
         <v>275000</v>
       </c>
-      <c r="I35" s="1">
-        <v>44391</v>
-      </c>
       <c r="J35" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2464,32 +2605,36 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight D. Eisenhower</v>
+      </c>
+      <c r="E36" t="s">
         <v>100</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Dwight D. Eisenhower</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>Richard Nixon</v>
+      </c>
+      <c r="I36" s="3">
         <v>285000</v>
       </c>
-      <c r="I36" s="1">
-        <v>44391</v>
-      </c>
       <c r="J36" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2497,32 +2642,36 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>John F. Kennedy</v>
+      </c>
+      <c r="E37" t="s">
         <v>103</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>John F. Kennedy</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="4">
+        <v>104</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="I37" s="3">
         <v>295000</v>
       </c>
-      <c r="I37" s="1">
-        <v>44391</v>
-      </c>
       <c r="J37" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2530,32 +2679,36 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="E38" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Lyndon B. Johnson</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="4">
+        <v>37</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I38" s="3">
         <v>305000</v>
       </c>
-      <c r="I38" s="1">
-        <v>44391</v>
-      </c>
       <c r="J38" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2563,32 +2716,36 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>Richard Nixon</v>
       </c>
       <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
         <v>107</v>
       </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>Spiro Agnew</v>
+      </c>
+      <c r="I39" s="3">
         <v>315000</v>
       </c>
-      <c r="I39" s="1">
-        <v>44391</v>
-      </c>
       <c r="J39" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2596,32 +2753,36 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerald Ford</v>
+      </c>
+      <c r="E40" t="s">
         <v>109</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Gerald Ford</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="4">
+        <v>37</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>Office vacant</v>
+      </c>
+      <c r="I40" s="3">
         <v>325000</v>
       </c>
-      <c r="I40" s="1">
-        <v>44391</v>
-      </c>
       <c r="J40" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2629,32 +2790,36 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Jimmy Carter</v>
+      </c>
+      <c r="E41" t="s">
         <v>111</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Jimmy Carter</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
       </c>
       <c r="F41" t="s">
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="4">
+        <v>112</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>Walter Mondale</v>
+      </c>
+      <c r="I41" s="3">
         <v>335000</v>
       </c>
-      <c r="I41" s="1">
-        <v>44391</v>
-      </c>
       <c r="J41" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2662,32 +2827,36 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ronald Reagan</v>
+      </c>
+      <c r="E42" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Ronald Reagan</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
         <v>115</v>
       </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="I42" s="3">
         <v>345000</v>
       </c>
-      <c r="I42" s="1">
-        <v>44391</v>
-      </c>
       <c r="J42" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2695,32 +2864,36 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="E43" t="s">
         <v>116</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>George H. W. Bush</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
         <v>117</v>
       </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>Dan Quayle</v>
+      </c>
+      <c r="I43" s="3">
         <v>355000</v>
       </c>
-      <c r="I43" s="1">
-        <v>44391</v>
-      </c>
       <c r="J43" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2728,32 +2901,36 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Bill Clinton</v>
+      </c>
+      <c r="E44" t="s">
         <v>119</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Bill Clinton</v>
-      </c>
-      <c r="E44" t="s">
-        <v>120</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="4">
+        <v>120</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>Al Gore</v>
+      </c>
+      <c r="I44" s="3">
         <v>365000</v>
       </c>
-      <c r="I44" s="1">
-        <v>44391</v>
-      </c>
       <c r="J44" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2761,32 +2938,36 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>George W. Bush</v>
+      </c>
+      <c r="E45" t="s">
         <v>122</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>George W. Bush</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
         <v>123</v>
       </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>Dick Cheney</v>
+      </c>
+      <c r="I45" s="3">
         <v>375000</v>
       </c>
-      <c r="I45" s="1">
-        <v>44391</v>
-      </c>
       <c r="J45" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44391</v>
+      </c>
+      <c r="K45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2794,32 +2975,36 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Barack Obama</v>
+      </c>
+      <c r="E46" t="s">
         <v>125</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Barack Obama</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="4">
+        <v>126</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>Joe Biden</v>
+      </c>
+      <c r="I46" s="3">
         <v>395000</v>
       </c>
-      <c r="I46" s="2">
-        <v>44391</v>
-      </c>
       <c r="J46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="K46" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2827,35 +3012,37 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Donald Trump</v>
+      </c>
+      <c r="E47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Donald Trump</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
         <v>129</v>
       </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>Mike Pence</v>
+      </c>
+      <c r="I47" s="3">
         <v>405000</v>
       </c>
-      <c r="I47" s="2">
-        <v>44391</v>
-      </c>
       <c r="J47" s="2">
+        <v>44391</v>
+      </c>
+      <c r="K47" s="2">
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H48"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Data Cleaning Excel Tutorial.xlsx
+++ b/Excel/Data Cleaning Excel Tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37381D5-9FF1-1C40-832D-ECCE9824A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579794C-EB61-7845-BC77-17ECC31F5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
